--- a/专业.xlsx
+++ b/专业.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -93,6 +93,10 @@
   </si>
   <si>
     <t>72/144</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计算机组成原理 数据结构 计算机操作系统</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -442,15 +446,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C6:K15"/>
+  <dimension ref="C6:L15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="10" max="10" width="43.7265625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="6" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>0</v>
       </c>
@@ -466,14 +473,14 @@
       <c r="I6" t="s">
         <v>13</v>
       </c>
-      <c r="J6" t="s">
+      <c r="K6" t="s">
         <v>14</v>
       </c>
-      <c r="K6" t="s">
+      <c r="L6" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>1</v>
       </c>
@@ -489,11 +496,11 @@
       <c r="I7">
         <v>829</v>
       </c>
-      <c r="J7" t="s">
+      <c r="K7" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>2</v>
       </c>
@@ -510,7 +517,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="9" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>3</v>
       </c>
@@ -518,7 +525,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="10" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>4</v>
       </c>
@@ -535,10 +542,13 @@
         <v>877</v>
       </c>
       <c r="J10" t="s">
+        <v>20</v>
+      </c>
+      <c r="K10" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>6</v>
       </c>
@@ -546,7 +556,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="12" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>7</v>
       </c>
@@ -554,7 +564,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="13" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>8</v>
       </c>
@@ -570,11 +580,11 @@
       <c r="I13" t="s">
         <v>18</v>
       </c>
-      <c r="J13" t="s">
+      <c r="K13" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>9</v>
       </c>
@@ -582,7 +592,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="15" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>10</v>
       </c>
